--- a/examples/src/main/resources/carbondata-bitmap-encode.xlsx
+++ b/examples/src/main/resources/carbondata-bitmap-encode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayun/Documents/carbondata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayun/git/saic-carbondata/examples/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3.3. apply Filter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>low cardinality columns</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -176,16 +172,6 @@
   </si>
   <si>
     <t xml:space="preserve"> if cardinality &gt;  BITMAP_CARDINALITY_MAX_VAL, will create bitmap encode failed</t>
-  </si>
-  <si>
-    <t>2.1 can refer to inverted index to read bitmap encode data page</t>
-  </si>
-  <si>
-    <t>3. use bitmap encode</t>
-  </si>
-  <si>
-    <t>2. read bitmap encode data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2. encode data with bitmap and write to page</t>
@@ -291,10 +277,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2.2  uncompress the read data and load to a BitSet Array</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>index</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -362,14 +344,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">3.1. </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>By default, bitmap encode is disabled, user can enable the bitmap encode creation for some column</t>
   </si>
   <si>
     <t xml:space="preserve"> TBLPROPERTIES ('BITMAP_ENCODE'='column1, column3')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. read bitmap encode data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 can refer to inverted index to read bitmap encode data page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2  uncompress the read data and load to a BitSet Array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. use bitmap encode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2. apply Filter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2374,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AP182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="86" workbookViewId="0">
-      <selection activeCell="V98" sqref="V98"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2396,7 +2398,7 @@
     <row r="1" spans="2:42" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:42" ht="21" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -2485,7 +2487,7 @@
     <row r="4" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B4" s="31"/>
       <c r="C4" s="32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -2532,7 +2534,7 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -2577,7 +2579,7 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -2663,7 +2665,7 @@
     <row r="8" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B8" s="16"/>
       <c r="C8" s="32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="32"/>
@@ -2709,7 +2711,7 @@
       <c r="B9" s="16"/>
       <c r="C9" s="32"/>
       <c r="D9" s="17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="32"/>
       <c r="F9" s="17"/>
@@ -3917,7 +3919,7 @@
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M33" s="34"/>
       <c r="N33" s="17"/>
@@ -3958,7 +3960,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
@@ -4046,7 +4048,7 @@
       <c r="D36" s="17"/>
       <c r="E36" s="32"/>
       <c r="F36" s="41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G36" s="5">
         <v>1</v>
@@ -4123,7 +4125,7 @@
       <c r="D37" s="17"/>
       <c r="E37" s="32"/>
       <c r="F37" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G37" s="4">
         <v>1</v>
@@ -4200,7 +4202,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="32"/>
       <c r="F38" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -4277,7 +4279,7 @@
       <c r="D39" s="17"/>
       <c r="E39" s="32"/>
       <c r="F39" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -4354,7 +4356,7 @@
       <c r="D40" s="17"/>
       <c r="E40" s="32"/>
       <c r="F40" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G40" s="4">
         <v>0</v>
@@ -4516,10 +4518,10 @@
       <c r="C43" s="32"/>
       <c r="D43" s="17"/>
       <c r="E43" s="32" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -4649,10 +4651,10 @@
       <c r="C46" s="32"/>
       <c r="D46" s="17"/>
       <c r="E46" s="32" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
@@ -4784,7 +4786,7 @@
       <c r="E49" s="32"/>
       <c r="F49" s="17"/>
       <c r="G49" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H49" s="23"/>
       <c r="I49" s="23"/>
@@ -4797,7 +4799,7 @@
       <c r="P49" s="17"/>
       <c r="Q49" s="17"/>
       <c r="R49" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
@@ -4832,7 +4834,7 @@
       <c r="F50" s="17"/>
       <c r="G50" s="25"/>
       <c r="H50" s="44" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I50" s="45"/>
       <c r="J50" s="45"/>
@@ -4888,7 +4890,7 @@
       <c r="Q51" s="17"/>
       <c r="R51" s="25"/>
       <c r="S51" s="43" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="T51" s="53"/>
       <c r="U51" s="53"/>
@@ -4923,11 +4925,11 @@
       <c r="G52" s="25"/>
       <c r="H52" s="47"/>
       <c r="I52" s="55" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="J52" s="30"/>
       <c r="K52" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L52" s="39"/>
       <c r="M52" s="40"/>
@@ -4943,7 +4945,7 @@
       <c r="U52" s="12"/>
       <c r="V52" s="13"/>
       <c r="W52" s="42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="X52" s="26"/>
       <c r="Y52" s="17"/>
@@ -4974,11 +4976,11 @@
       <c r="G53" s="25"/>
       <c r="H53" s="47"/>
       <c r="I53" s="55" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J53" s="30"/>
       <c r="K53" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L53" s="39"/>
       <c r="M53" s="40"/>
@@ -4994,7 +4996,7 @@
       <c r="U53" s="12"/>
       <c r="V53" s="13"/>
       <c r="W53" s="42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="X53" s="26"/>
       <c r="Y53" s="17"/>
@@ -5025,11 +5027,11 @@
       <c r="G54" s="25"/>
       <c r="H54" s="47"/>
       <c r="I54" s="55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J54" s="30"/>
       <c r="K54" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L54" s="39"/>
       <c r="M54" s="40"/>
@@ -5045,7 +5047,7 @@
       <c r="U54" s="12"/>
       <c r="V54" s="13"/>
       <c r="W54" s="42" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X54" s="26"/>
       <c r="Y54" s="17"/>
@@ -5076,11 +5078,11 @@
       <c r="G55" s="25"/>
       <c r="H55" s="47"/>
       <c r="I55" s="55" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J55" s="30"/>
       <c r="K55" s="39" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L55" s="39"/>
       <c r="M55" s="40"/>
@@ -5096,7 +5098,7 @@
       <c r="U55" s="12"/>
       <c r="V55" s="13"/>
       <c r="W55" s="42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="X55" s="26"/>
       <c r="Y55" s="17"/>
@@ -5252,7 +5254,7 @@
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
       <c r="E59" s="17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F59" s="17"/>
       <c r="G59" s="17"/>
@@ -5590,7 +5592,7 @@
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="N65" s="17"/>
       <c r="O65" s="17"/>
@@ -5714,7 +5716,7 @@
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G68" s="4">
         <v>0</v>
@@ -6007,7 +6009,7 @@
       <c r="C74" s="32"/>
       <c r="D74" s="17"/>
       <c r="E74" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
@@ -6224,7 +6226,7 @@
     <row r="79" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B79" s="16"/>
       <c r="C79" s="32" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="D79" s="17"/>
       <c r="E79" s="32"/>
@@ -6270,7 +6272,7 @@
       <c r="B80" s="16"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
@@ -6358,7 +6360,7 @@
       <c r="B82" s="16"/>
       <c r="C82" s="17"/>
       <c r="D82" s="17" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
@@ -6447,7 +6449,7 @@
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
       <c r="E84" s="32" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
@@ -6468,7 +6470,7 @@
       <c r="V84" s="17"/>
       <c r="W84" s="17"/>
       <c r="X84" s="32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Y84" s="17"/>
       <c r="Z84" s="17"/>
@@ -6494,7 +6496,7 @@
       <c r="C85" s="17"/>
       <c r="D85" s="17"/>
       <c r="E85" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F85" s="7"/>
       <c r="G85" s="17"/>
@@ -6515,7 +6517,7 @@
       <c r="V85" s="17"/>
       <c r="W85" s="17"/>
       <c r="X85" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y85" s="7"/>
       <c r="Z85" s="17"/>
@@ -6541,13 +6543,13 @@
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
       <c r="E86" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G86" s="58" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H86" s="59"/>
       <c r="I86" s="59"/>
@@ -6566,13 +6568,13 @@
       <c r="V86" s="60"/>
       <c r="W86" s="17"/>
       <c r="X86" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Y86" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="Z86" s="58" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AA86" s="59"/>
       <c r="AB86" s="59"/>
@@ -6599,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G87" s="38">
         <v>1</v>
@@ -6654,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="Y87" s="56" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Z87" s="38"/>
       <c r="AA87" s="39"/>
@@ -6664,7 +6666,7 @@
       <c r="AE87" s="39"/>
       <c r="AF87" s="39"/>
       <c r="AG87" s="39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AH87" s="39"/>
       <c r="AI87" s="39"/>
@@ -6684,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="F88" s="56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G88" s="38">
         <v>0</v>
@@ -6739,7 +6741,7 @@
         <v>1</v>
       </c>
       <c r="Y88" s="56" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Z88" s="38">
         <v>0</v>
@@ -6799,7 +6801,7 @@
         <v>2</v>
       </c>
       <c r="F89" s="56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G89" s="38">
         <v>0</v>
@@ -6854,7 +6856,7 @@
         <v>2</v>
       </c>
       <c r="Y89" s="56" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z89" s="38">
         <v>0</v>
@@ -6914,7 +6916,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="56" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G90" s="38">
         <v>0</v>
@@ -7207,7 +7209,7 @@
     <row r="96" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B96" s="16"/>
       <c r="C96" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D96" s="17"/>
       <c r="E96" s="17"/>
@@ -7429,7 +7431,7 @@
     <row r="100" spans="2:42" x14ac:dyDescent="0.2">
       <c r="B100" s="16"/>
       <c r="C100" s="32" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="D100" s="17"/>
       <c r="E100" s="32"/>
@@ -7518,7 +7520,7 @@
       <c r="B102" s="16"/>
       <c r="C102" s="32"/>
       <c r="D102" s="32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E102" s="32"/>
       <c r="F102" s="17"/>
@@ -7564,7 +7566,7 @@
       <c r="C103" s="32"/>
       <c r="D103" s="17"/>
       <c r="E103" s="32" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
@@ -7609,7 +7611,7 @@
       <c r="C104" s="32"/>
       <c r="D104" s="17"/>
       <c r="E104" s="57" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
@@ -7739,7 +7741,7 @@
       <c r="B107" s="16"/>
       <c r="C107" s="32"/>
       <c r="D107" s="32" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="E107" s="17"/>
       <c r="F107" s="17"/>
@@ -8389,7 +8391,7 @@
       <c r="C118" s="17"/>
       <c r="D118" s="17"/>
       <c r="E118" s="17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F118" s="17"/>
       <c r="G118" s="4">
@@ -8509,7 +8511,7 @@
       <c r="C120" s="17"/>
       <c r="D120" s="17"/>
       <c r="E120" s="17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F120" s="17"/>
       <c r="G120" s="4">
@@ -10607,7 +10609,7 @@
       <c r="C156" s="17"/>
       <c r="D156" s="17"/>
       <c r="E156" s="32" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F156" s="32"/>
       <c r="G156" s="17"/>
@@ -11083,7 +11085,7 @@
       <c r="D167" s="17"/>
       <c r="E167" s="17"/>
       <c r="F167" s="32" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G167" s="17"/>
       <c r="H167" s="17"/>
